--- a/biology/Médecine/Séquence_IRM/Séquence_IRM.xlsx
+++ b/biology/Médecine/Séquence_IRM/Séquence_IRM.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>S%C3%A9quence_IRM</t>
+          <t>Séquence_IRM</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t>La séquence IRM est l'ensemble des paramètres définissant les impulsions de champ magnétique et les caractéristiques des mesures effectuées en imagerie par résonance magnétique.
 Une séquence se caractérise par deux principaux paramètres: 
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>S%C3%A9quence_IRM</t>
+          <t>Séquence_IRM</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,16 +525,18 @@
           <t>Séquence écho de spin (SE)</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La première séquence IRM employée fut la séquence écho de [1]spin. Cette dernière se décompose en:
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La première séquence IRM employée fut la séquence écho de spin. Cette dernière se décompose en:
 Une impulsion 90° dite d'excitation à t=0
 Une période de déphasage des spins dans le plan transverse des protons pendant TE/2
 Une impulsion 180°, dite d'inversion
 Un rephasage pendant TE/2
 La lecture du signal (lecture de l'écho de spin) à TE
 Ce processus est répété plusieurs fois afin de remplir l'espace K et d'obtenir une image.
-Une variante plus moderne de la séquence en écho de spin est la séquence FSE (Fast Spin Echo). C'est une séquence dans laquelle chaque impulsion de 90° (d'excitation) est suivie de plusieurs d'impulsions de 180°. Cette séquence permet donc d'obtenir une image avec une unique impulsion de 90°[2].
+Une variante plus moderne de la séquence en écho de spin est la séquence FSE (Fast Spin Echo). C'est une séquence dans laquelle chaque impulsion de 90° (d'excitation) est suivie de plusieurs d'impulsions de 180°. Cette séquence permet donc d'obtenir une image avec une unique impulsion de 90°.
 </t>
         </is>
       </c>
@@ -533,7 +547,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>S%C3%A9quence_IRM</t>
+          <t>Séquence_IRM</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -551,9 +565,11 @@
           <t>Séquence inversion-récupération (IR)</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La séquence en inversion-récupération consiste à effectuer une impulsion RF à 180° dans le plan longitudinal avant d'effectuer une séquence écho de spin. Ce type de séquence est notamment utile pour obtenir un meilleur contraste entre les tissus ou bien la suppression du signal de certains tissus comme par exemple le LCR dans la séquence FLAIR (FLuid Attenuated Inversion Recovery)[3] ou de la graisse dans la séquence STIR (Short Tau Inversion Recovery)[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La séquence en inversion-récupération consiste à effectuer une impulsion RF à 180° dans le plan longitudinal avant d'effectuer une séquence écho de spin. Ce type de séquence est notamment utile pour obtenir un meilleur contraste entre les tissus ou bien la suppression du signal de certains tissus comme par exemple le LCR dans la séquence FLAIR (FLuid Attenuated Inversion Recovery) ou de la graisse dans la séquence STIR (Short Tau Inversion Recovery).
 </t>
         </is>
       </c>
